--- a/medicine/Psychotrope/Chope/Chope.xlsx
+++ b/medicine/Psychotrope/Chope/Chope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une chope (de l'alsacien schoppe qui signifie « grand verre à bière ») est un récipient, un gobelet cylindrique, muni d'une anse, dans lequel on boit généralement de la bière. Elle peut être en bois, en terre cuite, en grès, en métal (zinc, étain), en porcelaine, ou en métal émaillé, mais on la trouve généralement en verre et c'est donc un type de verre à bière. 
 Le terme allemand Schoppen désigne parfois dans les régions viticoles limitrophes de l'Alsace (le Palatinat et le Bade-Wurtemberg), un verre de vin. Le Schoppen a généralement une contenance d'un demi-litre mais la Bavière fait exception : on y sert souvent la bière dans des chopes d'un litre appelées Maß (prononcer « masse » et signifiant « mesure ») introduites à l'époque napoléonienne en même temps que le système métrique et destinées à remplacer l'ancienne mesure de base, la pinte. 
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme bien souvent, il est assez difficile de déterminer précisément à partir de quel moment et où on a utilisé le terme de « chope » pour la première fois. Cependant, il semblerait que l'origine des chopes remonte au XIVe siècle durant une période assez noire de l'histoire européenne. Devant les ravages de la peste, les grands dirigeants de l'époque, dont l'empereur germanique, ont pris des mesures afin d'endiguer la progression de ce fléau. Des mesures strictes furent prises, l'une de ces mesures consistait à couvrir tous les récipients destinés à recevoir des denrées alimentaires, c'est ainsi que les « pots » de bière reçurent un couvercle en étain, donnant naissance à la « chope ». Cet usage, devenu aujourd'hui inutile, persista selon les régions jusqu'au XXe siècle. 
 La maîtrise du travail du verre fut essentielle pour les évolutions contemporaines des verres à bière. Les chopes, et autres assimilés, sont devenues un support commercial sûr pour les brasseries qui fournissent leurs chopes, marquées de leurs couleurs, aux débitants de boisson. Il existe une grande variété de formes, de motifs, et d'illustrations qui font le bonheur des collectionneurs de par le monde (on parle alors, pour tout ce qui concerne la bière, de tégestophiles).
